--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdnf-Ret.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gdnf-Ret.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,40 +543,40 @@
         <v>0.06295099999999999</v>
       </c>
       <c r="I2">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J2">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.917113</v>
+        <v>4.328495333333334</v>
       </c>
       <c r="N2">
-        <v>5.751339</v>
+        <v>12.985486</v>
       </c>
       <c r="O2">
-        <v>0.1346819610083227</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="P2">
-        <v>0.1346819610083227</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="Q2">
-        <v>0.04022806015433333</v>
+        <v>0.09082770324288889</v>
       </c>
       <c r="R2">
-        <v>0.3620525413889999</v>
+        <v>0.8174493291859999</v>
       </c>
       <c r="S2">
-        <v>0.004260940556670098</v>
+        <v>0.009399193217377968</v>
       </c>
       <c r="T2">
-        <v>0.004260940556670097</v>
+        <v>0.009399193217377968</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +605,10 @@
         <v>0.06295099999999999</v>
       </c>
       <c r="I3">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J3">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +623,10 @@
         <v>22.084618</v>
       </c>
       <c r="O3">
-        <v>0.5171664651239829</v>
+        <v>0.3954579193622197</v>
       </c>
       <c r="P3">
-        <v>0.5171664651239828</v>
+        <v>0.3954579193622196</v>
       </c>
       <c r="Q3">
         <v>0.1544720875242222</v>
@@ -632,10 +635,10 @@
         <v>1.390248787718</v>
       </c>
       <c r="S3">
-        <v>0.01636162370445673</v>
+        <v>0.01598535408793967</v>
       </c>
       <c r="T3">
-        <v>0.01636162370445672</v>
+        <v>0.01598535408793967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +667,10 @@
         <v>0.06295099999999999</v>
       </c>
       <c r="I4">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J4">
-        <v>0.03163705461941403</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.955718666666667</v>
+        <v>6.912382333333333</v>
       </c>
       <c r="N4">
-        <v>14.867156</v>
+        <v>20.737147</v>
       </c>
       <c r="O4">
-        <v>0.3481515738676944</v>
+        <v>0.3713294477689628</v>
       </c>
       <c r="P4">
-        <v>0.3481515738676944</v>
+        <v>0.3713294477689628</v>
       </c>
       <c r="Q4">
-        <v>0.1039891485951111</v>
+        <v>0.1450471267552222</v>
       </c>
       <c r="R4">
-        <v>0.9359023373559999</v>
+        <v>1.305424140797</v>
       </c>
       <c r="S4">
-        <v>0.01101449035828721</v>
+        <v>0.01501002360867894</v>
       </c>
       <c r="T4">
-        <v>0.01101449035828721</v>
+        <v>0.01501002360867894</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,55 +714,55 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.6422786666666668</v>
+        <v>0.02098366666666666</v>
       </c>
       <c r="H5">
-        <v>1.926836</v>
+        <v>0.06295099999999999</v>
       </c>
       <c r="I5">
-        <v>0.968362945380586</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="J5">
-        <v>0.968362945380586</v>
+        <v>0.04042238960271747</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.917113</v>
+        <v>0.012811</v>
       </c>
       <c r="N5">
-        <v>5.751339</v>
+        <v>0.038433</v>
       </c>
       <c r="O5">
-        <v>0.1346819610083227</v>
+        <v>0.0006882000048562394</v>
       </c>
       <c r="P5">
-        <v>0.1346819610083227</v>
+        <v>0.0006882000048562392</v>
       </c>
       <c r="Q5">
-        <v>1.231320781489333</v>
+        <v>0.0002688217536666667</v>
       </c>
       <c r="R5">
-        <v>11.081887033404</v>
+        <v>0.002419395783</v>
       </c>
       <c r="S5">
-        <v>0.1304210204516527</v>
+        <v>2.781868872089096E-05</v>
       </c>
       <c r="T5">
-        <v>0.1304210204516526</v>
+        <v>2.781868872089096E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,7 +776,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +785,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6422786666666668</v>
+        <v>0.4981263333333333</v>
       </c>
       <c r="H6">
-        <v>1.926836</v>
+        <v>1.494379</v>
       </c>
       <c r="I6">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="J6">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.361539333333333</v>
+        <v>4.328495333333334</v>
       </c>
       <c r="N6">
-        <v>22.084618</v>
+        <v>12.985486</v>
       </c>
       <c r="O6">
-        <v>0.5171664651239829</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="P6">
-        <v>0.5171664651239828</v>
+        <v>0.2325244328639614</v>
       </c>
       <c r="Q6">
-        <v>4.728159667627557</v>
+        <v>2.156137509243778</v>
       </c>
       <c r="R6">
-        <v>42.553437008648</v>
+        <v>19.405237583194</v>
       </c>
       <c r="S6">
-        <v>0.5008048414195262</v>
+        <v>0.2231252396465834</v>
       </c>
       <c r="T6">
-        <v>0.5008048414195261</v>
+        <v>0.2231252396465834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,16 +847,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.6422786666666668</v>
+        <v>0.4981263333333333</v>
       </c>
       <c r="H7">
-        <v>1.926836</v>
+        <v>1.494379</v>
       </c>
       <c r="I7">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="J7">
-        <v>0.968362945380586</v>
+        <v>0.9595776103972825</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +865,152 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.955718666666667</v>
+        <v>7.361539333333333</v>
       </c>
       <c r="N7">
-        <v>14.867156</v>
+        <v>22.084618</v>
       </c>
       <c r="O7">
-        <v>0.3481515738676944</v>
+        <v>0.3954579193622197</v>
       </c>
       <c r="P7">
-        <v>0.3481515738676944</v>
+        <v>0.3954579193622196</v>
       </c>
       <c r="Q7">
-        <v>3.182952377601779</v>
+        <v>3.666976595802444</v>
       </c>
       <c r="R7">
-        <v>28.646571398416</v>
+        <v>33.002789362222</v>
       </c>
       <c r="S7">
-        <v>0.3371370835094072</v>
+        <v>0.37947256527428</v>
       </c>
       <c r="T7">
-        <v>0.3371370835094071</v>
+        <v>0.37947256527428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.4981263333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.494379</v>
+      </c>
+      <c r="I8">
+        <v>0.9595776103972825</v>
+      </c>
+      <c r="J8">
+        <v>0.9595776103972825</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>6.912382333333333</v>
+      </c>
+      <c r="N8">
+        <v>20.737147</v>
+      </c>
+      <c r="O8">
+        <v>0.3713294477689628</v>
+      </c>
+      <c r="P8">
+        <v>0.3713294477689628</v>
+      </c>
+      <c r="Q8">
+        <v>3.443239666301444</v>
+      </c>
+      <c r="R8">
+        <v>30.989156996713</v>
+      </c>
+      <c r="S8">
+        <v>0.3563194241602839</v>
+      </c>
+      <c r="T8">
+        <v>0.3563194241602838</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.4981263333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.494379</v>
+      </c>
+      <c r="I9">
+        <v>0.9595776103972825</v>
+      </c>
+      <c r="J9">
+        <v>0.9595776103972825</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.012811</v>
+      </c>
+      <c r="N9">
+        <v>0.038433</v>
+      </c>
+      <c r="O9">
+        <v>0.0006882000048562394</v>
+      </c>
+      <c r="P9">
+        <v>0.0006882000048562392</v>
+      </c>
+      <c r="Q9">
+        <v>0.006381496456333333</v>
+      </c>
+      <c r="R9">
+        <v>0.057433468107</v>
+      </c>
+      <c r="S9">
+        <v>0.0006603813161353484</v>
+      </c>
+      <c r="T9">
+        <v>0.0006603813161353483</v>
       </c>
     </row>
   </sheetData>
